--- a/doc/wydatki2c.xlsx
+++ b/doc/wydatki2c.xlsx
@@ -111,11 +111,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -403,98 +400,98 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2">
         <v>50</v>
       </c>
     </row>
@@ -502,7 +499,8 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2">
         <v>50</v>
       </c>
     </row>
@@ -510,7 +508,8 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2">
         <v>50</v>
       </c>
     </row>
@@ -518,7 +517,8 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2">
         <v>50</v>
       </c>
     </row>
@@ -526,7 +526,8 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2">
         <v>50</v>
       </c>
     </row>
@@ -534,7 +535,8 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2">
         <v>50</v>
       </c>
     </row>
@@ -542,16 +544,23 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="2">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="16">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
